--- a/DEMO_DM.xlsx
+++ b/DEMO_DM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6532DF3-789E-442D-9042-EF3F67F3D04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE45293-D322-4B10-BFD6-22164F6C1E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="64">
   <si>
     <t>STUDYID</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>2024-09-10</t>
-  </si>
-  <si>
-    <t>2024-09-17</t>
   </si>
   <si>
     <t>2024-09-19</t>
@@ -267,8 +264,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +574,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,13 +591,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -619,16 +617,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -646,21 +644,21 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -678,21 +676,21 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -710,21 +708,21 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -742,21 +740,21 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -774,21 +772,21 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -806,21 +804,21 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -838,21 +836,21 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -870,24 +868,24 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45429</v>
       </c>
       <c r="F10">
         <v>70</v>
@@ -902,24 +900,24 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>52</v>
@@ -934,24 +932,24 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>67</v>
@@ -966,24 +964,24 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>61</v>
@@ -998,24 +996,24 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>68</v>
@@ -1030,24 +1028,24 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>69</v>
@@ -1062,24 +1060,24 @@
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16">
         <v>61</v>
@@ -1094,24 +1092,24 @@
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>65</v>
@@ -1126,24 +1124,24 @@
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18">
         <v>42</v>
@@ -1158,21 +1156,21 @@
         <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -1190,21 +1188,21 @@
         <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -1222,24 +1220,24 @@
         <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21">
         <v>47</v>
@@ -1254,24 +1252,24 @@
         <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22">
         <v>57</v>
@@ -1286,24 +1284,24 @@
         <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23">
         <v>56</v>
@@ -1315,14 +1313,13 @@
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DEMO_DM.xlsx
+++ b/DEMO_DM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE45293-D322-4B10-BFD6-22164F6C1E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02C8AF-F7E6-427D-BCE5-FCA0669ED46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="DM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DM!$A$1:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DM!$A$1:$J$24</definedName>
     <definedName name="DM">DM!$A$1:$J$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="63">
   <si>
     <t>STUDYID</t>
   </si>
@@ -126,15 +126,9 @@
     <t>2024-10-29</t>
   </si>
   <si>
-    <t>2024-08-07</t>
-  </si>
-  <si>
     <t>2024-10-04</t>
   </si>
   <si>
-    <t>2024-06-24</t>
-  </si>
-  <si>
     <t>NOT REPORTED</t>
   </si>
   <si>
@@ -229,12 +223,19 @@
   </si>
   <si>
     <t>Screening</t>
+  </si>
+  <si>
+    <t>VPP100080009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,9 +265,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,16 +573,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -591,13 +593,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>61</v>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -617,21 +619,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>67</v>
       </c>
       <c r="G2" t="s">
@@ -644,26 +646,26 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>61</v>
       </c>
       <c r="G3" t="s">
@@ -676,26 +678,26 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>57</v>
       </c>
       <c r="G4" t="s">
@@ -708,26 +710,26 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>74</v>
       </c>
       <c r="G5" t="s">
@@ -740,26 +742,26 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>71</v>
       </c>
       <c r="G6" t="s">
@@ -772,26 +774,26 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -804,26 +806,26 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s">
@@ -836,26 +838,26 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>51</v>
       </c>
       <c r="G9" t="s">
@@ -868,26 +870,26 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
-        <v>45429</v>
-      </c>
-      <c r="F10">
+        <v>45528</v>
+      </c>
+      <c r="F10" s="2">
         <v>70</v>
       </c>
       <c r="G10" t="s">
@@ -900,26 +902,26 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>52</v>
       </c>
       <c r="G11" t="s">
@@ -932,26 +934,26 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>67</v>
       </c>
       <c r="G12" t="s">
@@ -964,26 +966,26 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>61</v>
       </c>
       <c r="G13" t="s">
@@ -996,26 +998,26 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>68</v>
       </c>
       <c r="G14" t="s">
@@ -1028,26 +1030,26 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>69</v>
       </c>
       <c r="G15" t="s">
@@ -1060,26 +1062,26 @@
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>61</v>
       </c>
       <c r="G16" t="s">
@@ -1092,26 +1094,26 @@
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>65</v>
       </c>
       <c r="G17" t="s">
@@ -1124,26 +1126,26 @@
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>42</v>
       </c>
       <c r="G18" t="s">
@@ -1156,26 +1158,26 @@
         <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>72</v>
       </c>
       <c r="G19" t="s">
@@ -1188,26 +1190,26 @@
         <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>68</v>
       </c>
       <c r="G20" t="s">
@@ -1220,26 +1222,26 @@
         <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1">
+        <v>42954</v>
+      </c>
+      <c r="F21" s="2">
         <v>47</v>
       </c>
       <c r="G21" t="s">
@@ -1252,26 +1254,26 @@
         <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2">
         <v>57</v>
       </c>
       <c r="G22" t="s">
@@ -1284,26 +1286,26 @@
         <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45466</v>
+      </c>
+      <c r="F23" s="2">
         <v>56</v>
       </c>
       <c r="G23" t="s">
@@ -1313,13 +1315,177 @@
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45466</v>
+      </c>
+      <c r="F24" s="2">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45435</v>
+      </c>
+      <c r="F25" s="2">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F58" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J24" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>